--- a/test files/SaveThis.xlsx
+++ b/test files/SaveThis.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="10">
+  <si>
+    <t>Predicted Flower Name - nn</t>
+  </si>
   <si>
     <t>Predicted Flower Name - knn</t>
   </si>
   <si>
-    <t>Predicted Flower Name - cart</t>
-  </si>
-  <si>
     <t>Predicted Flower Name - discr</t>
-  </si>
-  <si>
-    <t>Predicted Flower Name - svm</t>
   </si>
   <si>
     <t>Sepal Length</t>
@@ -404,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,3085 +429,2764 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.1</v>
       </c>
       <c r="F2">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="G2">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
-        <v>1.4</v>
-      </c>
-      <c r="I2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>4.9</v>
       </c>
       <c r="F3">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
-      </c>
-      <c r="I3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>4.7</v>
       </c>
       <c r="F4">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="G4">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H4">
-        <v>1.3</v>
-      </c>
-      <c r="I4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>4.6</v>
       </c>
       <c r="F5">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
-        <v>1.5</v>
-      </c>
-      <c r="I5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H6">
-        <v>1.4</v>
-      </c>
-      <c r="I6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.4</v>
       </c>
       <c r="F7">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="G7">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H7">
-        <v>1.7</v>
-      </c>
-      <c r="I7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>4.6</v>
       </c>
       <c r="F8">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="G8">
+        <v>1.4</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>3.4</v>
       </c>
-      <c r="H8">
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>4.4</v>
+      </c>
+      <c r="F10">
+        <v>2.9</v>
+      </c>
+      <c r="G10">
         <v>1.4</v>
       </c>
-      <c r="I8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>3.4</v>
-      </c>
-      <c r="H9">
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>4.9</v>
+      </c>
+      <c r="F11">
+        <v>3.1</v>
+      </c>
+      <c r="G11">
         <v>1.5</v>
       </c>
-      <c r="I9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>4.4</v>
-      </c>
-      <c r="G10">
-        <v>2.9</v>
-      </c>
-      <c r="H10">
-        <v>1.4</v>
-      </c>
-      <c r="I10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>4.9</v>
-      </c>
-      <c r="G11">
-        <v>3.1</v>
-      </c>
       <c r="H11">
-        <v>1.5</v>
-      </c>
-      <c r="I11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.4</v>
       </c>
       <c r="F12">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="G12">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
-        <v>1.5</v>
-      </c>
-      <c r="I12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>4.8</v>
       </c>
       <c r="F13">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="G13">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H13">
-        <v>1.6</v>
-      </c>
-      <c r="I13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>4.8</v>
       </c>
       <c r="F14">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H14">
-        <v>1.4</v>
-      </c>
-      <c r="I14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>4.3</v>
       </c>
       <c r="F15">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H15">
-        <v>1.1</v>
-      </c>
-      <c r="I15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.8</v>
       </c>
       <c r="F16">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H16">
-        <v>1.2</v>
-      </c>
-      <c r="I16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.7</v>
       </c>
       <c r="F17">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="G17">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H17">
-        <v>1.5</v>
-      </c>
-      <c r="I17">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.4</v>
       </c>
       <c r="F18">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="G18">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H18">
-        <v>1.3</v>
-      </c>
-      <c r="I18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.1</v>
       </c>
       <c r="F19">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="G19">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H19">
-        <v>1.4</v>
-      </c>
-      <c r="I19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.7</v>
       </c>
       <c r="F20">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="G20">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H20">
-        <v>1.7</v>
-      </c>
-      <c r="I20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.1</v>
       </c>
       <c r="F21">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="G21">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H21">
-        <v>1.5</v>
-      </c>
-      <c r="I21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>5.4</v>
       </c>
       <c r="F22">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="G22">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H22">
-        <v>1.7</v>
-      </c>
-      <c r="I22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>5.1</v>
       </c>
       <c r="F23">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="G23">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H23">
-        <v>1.5</v>
-      </c>
-      <c r="I23">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>4.6</v>
       </c>
       <c r="F24">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="G24">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>5.1</v>
       </c>
       <c r="F25">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="G25">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H25">
-        <v>1.7</v>
-      </c>
-      <c r="I25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>4.8</v>
       </c>
       <c r="F26">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="G26">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H26">
-        <v>1.9</v>
-      </c>
-      <c r="I26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H27">
-        <v>1.6</v>
-      </c>
-      <c r="I27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="G28">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H28">
-        <v>1.6</v>
-      </c>
-      <c r="I28">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>5.2</v>
       </c>
       <c r="F29">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="G29">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H29">
-        <v>1.5</v>
-      </c>
-      <c r="I29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>5.2</v>
       </c>
       <c r="F30">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="G30">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H30">
-        <v>1.4</v>
-      </c>
-      <c r="I30">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>4.7</v>
       </c>
       <c r="F31">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="G31">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H31">
-        <v>1.6</v>
-      </c>
-      <c r="I31">
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>4.8</v>
       </c>
       <c r="F32">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="G32">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H32">
-        <v>1.6</v>
-      </c>
-      <c r="I32">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>5.4</v>
       </c>
       <c r="F33">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="G33">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H33">
-        <v>1.5</v>
-      </c>
-      <c r="I33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>5.2</v>
       </c>
       <c r="F34">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="G34">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H34">
-        <v>1.5</v>
-      </c>
-      <c r="I34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>5.5</v>
       </c>
       <c r="F35">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="G35">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H35">
-        <v>1.4</v>
-      </c>
-      <c r="I35">
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>4.9</v>
       </c>
       <c r="F36">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="G36">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H36">
-        <v>1.5</v>
-      </c>
-      <c r="I36">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="G37">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H37">
-        <v>1.2</v>
-      </c>
-      <c r="I37">
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>5.5</v>
       </c>
       <c r="F38">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="G38">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H38">
-        <v>1.3</v>
-      </c>
-      <c r="I38">
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>4.9</v>
       </c>
       <c r="F39">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="G39">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H39">
-        <v>1.5</v>
-      </c>
-      <c r="I39">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>4.4</v>
       </c>
       <c r="F40">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H40">
-        <v>1.3</v>
-      </c>
-      <c r="I40">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>5.1</v>
       </c>
       <c r="F41">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="G41">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H41">
-        <v>1.5</v>
-      </c>
-      <c r="I41">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G42">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H42">
-        <v>1.3</v>
-      </c>
-      <c r="I42">
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>4.5</v>
       </c>
       <c r="F43">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="G43">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H43">
-        <v>1.3</v>
-      </c>
-      <c r="I43">
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>4.4</v>
       </c>
       <c r="F44">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="G44">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H44">
-        <v>1.3</v>
-      </c>
-      <c r="I44">
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G45">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H45">
-        <v>1.6</v>
-      </c>
-      <c r="I45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>5.1</v>
       </c>
       <c r="F46">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="G46">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H46">
-        <v>1.9</v>
-      </c>
-      <c r="I46">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>4.8</v>
       </c>
       <c r="F47">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H47">
-        <v>1.4</v>
-      </c>
-      <c r="I47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>5.1</v>
       </c>
       <c r="F48">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="G48">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H48">
-        <v>1.6</v>
-      </c>
-      <c r="I48">
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>4.6</v>
       </c>
       <c r="F49">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="G49">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H49">
-        <v>1.4</v>
-      </c>
-      <c r="I49">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>5.3</v>
       </c>
       <c r="F50">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="G50">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H50">
-        <v>1.5</v>
-      </c>
-      <c r="I50">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="G51">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H51">
-        <v>1.4</v>
-      </c>
-      <c r="I51">
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="G52">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H52">
-        <v>4.7</v>
-      </c>
-      <c r="I52">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>6.4</v>
       </c>
       <c r="F53">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="G53">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H53">
-        <v>4.5</v>
-      </c>
-      <c r="I53">
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>6.9</v>
       </c>
       <c r="F54">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="G54">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="H54">
-        <v>4.9</v>
-      </c>
-      <c r="I54">
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>5.5</v>
       </c>
       <c r="F55">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="G55">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>4</v>
-      </c>
-      <c r="I55">
         <v>1.3</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>6.5</v>
       </c>
       <c r="F56">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="G56">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H56">
-        <v>4.6</v>
-      </c>
-      <c r="I56">
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>5.7</v>
       </c>
       <c r="F57">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="G57">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H57">
-        <v>4.5</v>
-      </c>
-      <c r="I57">
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>6.3</v>
       </c>
       <c r="F58">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="G58">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H58">
-        <v>4.7</v>
-      </c>
-      <c r="I58">
         <v>1.6</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>4.9</v>
       </c>
       <c r="F59">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="G59">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H59">
-        <v>3.3</v>
-      </c>
-      <c r="I59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>6.6</v>
       </c>
       <c r="F60">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="G60">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H60">
-        <v>4.6</v>
-      </c>
-      <c r="I60">
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>5.2</v>
       </c>
       <c r="F61">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="G61">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H61">
-        <v>3.9</v>
-      </c>
-      <c r="I61">
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H62">
-        <v>3.5</v>
-      </c>
-      <c r="I62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>5.9</v>
       </c>
       <c r="F63">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H63">
-        <v>4.2</v>
-      </c>
-      <c r="I63">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="G64">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>4</v>
-      </c>
-      <c r="I64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>6.1</v>
       </c>
       <c r="F65">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="G65">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H65">
-        <v>4.7</v>
-      </c>
-      <c r="I65">
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>5.6</v>
       </c>
       <c r="F66">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="G66">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H66">
-        <v>3.6</v>
-      </c>
-      <c r="I66">
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>6.7</v>
       </c>
       <c r="F67">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="G67">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H67">
-        <v>4.4</v>
-      </c>
-      <c r="I67">
         <v>1.4</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>5.6</v>
       </c>
       <c r="F68">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H68">
-        <v>4.5</v>
-      </c>
-      <c r="I68">
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>5.8</v>
       </c>
       <c r="F69">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="G69">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H69">
-        <v>4.1</v>
-      </c>
-      <c r="I69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>6.2</v>
       </c>
       <c r="F70">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="G70">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H70">
-        <v>4.5</v>
-      </c>
-      <c r="I70">
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>5.6</v>
       </c>
       <c r="F71">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="G71">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H71">
-        <v>3.9</v>
-      </c>
-      <c r="I71">
         <v>1.1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>5.9</v>
       </c>
       <c r="F72">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="G72">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H72">
-        <v>4.8</v>
-      </c>
-      <c r="I72">
         <v>1.8</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>6.1</v>
       </c>
       <c r="F73">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="G73">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <v>4</v>
-      </c>
-      <c r="I73">
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>6.3</v>
       </c>
       <c r="F74">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="G74">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="H74">
-        <v>4.9</v>
-      </c>
-      <c r="I74">
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>6.1</v>
       </c>
       <c r="F75">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="G75">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H75">
-        <v>4.7</v>
-      </c>
-      <c r="I75">
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>6.4</v>
       </c>
       <c r="F76">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="G76">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H76">
-        <v>4.3</v>
-      </c>
-      <c r="I76">
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>6.6</v>
       </c>
       <c r="F77">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H77">
-        <v>4.4</v>
-      </c>
-      <c r="I77">
         <v>1.4</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>6.8</v>
       </c>
       <c r="F78">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="G78">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H78">
-        <v>4.8</v>
-      </c>
-      <c r="I78">
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>6.7</v>
       </c>
       <c r="F79">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H79">
-        <v>5</v>
-      </c>
-      <c r="I79">
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="G80">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H80">
-        <v>4.5</v>
-      </c>
-      <c r="I80">
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>5.7</v>
       </c>
       <c r="F81">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="G81">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H81">
-        <v>3.5</v>
-      </c>
-      <c r="I81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>5.5</v>
       </c>
       <c r="F82">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="G82">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H82">
-        <v>3.8</v>
-      </c>
-      <c r="I82">
         <v>1.1</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>5.5</v>
       </c>
       <c r="F83">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="G83">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H83">
-        <v>3.7</v>
-      </c>
-      <c r="I83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>5.8</v>
       </c>
       <c r="F84">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="G84">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H84">
-        <v>3.9</v>
-      </c>
-      <c r="I84">
         <v>1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="G85">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H85">
-        <v>5.1</v>
-      </c>
-      <c r="I85">
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>5.4</v>
       </c>
       <c r="F86">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H86">
-        <v>4.5</v>
-      </c>
-      <c r="I86">
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="G87">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H87">
-        <v>4.5</v>
-      </c>
-      <c r="I87">
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>6.7</v>
       </c>
       <c r="F88">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="G88">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H88">
-        <v>4.7</v>
-      </c>
-      <c r="I88">
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>6.3</v>
       </c>
       <c r="F89">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="G89">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H89">
-        <v>4.4</v>
-      </c>
-      <c r="I89">
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>5.6</v>
       </c>
       <c r="F90">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H90">
-        <v>4.1</v>
-      </c>
-      <c r="I90">
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>5.5</v>
       </c>
       <c r="F91">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G91">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H91">
-        <v>4</v>
-      </c>
-      <c r="I91">
         <v>1.3</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>5.5</v>
       </c>
       <c r="F92">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="G92">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H92">
-        <v>4.4</v>
-      </c>
-      <c r="I92">
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>6.1</v>
       </c>
       <c r="F93">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H93">
-        <v>4.6</v>
-      </c>
-      <c r="I93">
         <v>1.4</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>5.8</v>
       </c>
       <c r="F94">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="G94">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H94">
-        <v>4</v>
-      </c>
-      <c r="I94">
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="G95">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H95">
-        <v>3.3</v>
-      </c>
-      <c r="I95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>5.6</v>
       </c>
       <c r="F96">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="G96">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H96">
-        <v>4.2</v>
-      </c>
-      <c r="I96">
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>5.7</v>
       </c>
       <c r="F97">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H97">
-        <v>4.2</v>
-      </c>
-      <c r="I97">
         <v>1.2</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>5.7</v>
       </c>
       <c r="F98">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="G98">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H98">
-        <v>4.2</v>
-      </c>
-      <c r="I98">
         <v>1.3</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>6.2</v>
       </c>
       <c r="F99">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="G99">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H99">
-        <v>4.3</v>
-      </c>
-      <c r="I99">
         <v>1.3</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>5.1</v>
       </c>
       <c r="F100">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="G100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>3</v>
-      </c>
-      <c r="I100">
         <v>1.1</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>5.7</v>
       </c>
       <c r="F101">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="G101">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H101">
-        <v>4.1</v>
-      </c>
-      <c r="I101">
         <v>1.3</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>6.3</v>
       </c>
       <c r="F102">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="G102">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="H102">
-        <v>6</v>
-      </c>
-      <c r="I102">
         <v>2.5</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>5.8</v>
       </c>
       <c r="F103">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="G103">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H103">
-        <v>5.1</v>
-      </c>
-      <c r="I103">
         <v>1.9</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>7.1</v>
       </c>
       <c r="F104">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H104">
-        <v>5.9</v>
-      </c>
-      <c r="I104">
         <v>2.1</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>6.3</v>
       </c>
       <c r="F105">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="G105">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H105">
-        <v>5.6</v>
-      </c>
-      <c r="I105">
         <v>1.8</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>6.5</v>
       </c>
       <c r="F106">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H106">
-        <v>5.8</v>
-      </c>
-      <c r="I106">
         <v>2.2</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>7.6</v>
       </c>
       <c r="F107">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="H107">
-        <v>6.6</v>
-      </c>
-      <c r="I107">
         <v>2.1</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3518,376 +3194,337 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>4.9</v>
       </c>
       <c r="F108">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="G108">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H108">
-        <v>4.5</v>
-      </c>
-      <c r="I108">
         <v>1.7</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>7.3</v>
       </c>
       <c r="F109">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="G109">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H109">
-        <v>6.3</v>
-      </c>
-      <c r="I109">
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>6.7</v>
       </c>
       <c r="F110">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="G110">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H110">
-        <v>5.8</v>
-      </c>
-      <c r="I110">
         <v>1.8</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>7.2</v>
       </c>
       <c r="F111">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="G111">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H111">
-        <v>6.1</v>
-      </c>
-      <c r="I111">
         <v>2.5</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>6.5</v>
       </c>
       <c r="F112">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="G112">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H112">
-        <v>5.1</v>
-      </c>
-      <c r="I112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>6.4</v>
       </c>
       <c r="F113">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="G113">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H113">
-        <v>5.3</v>
-      </c>
-      <c r="I113">
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>6.8</v>
       </c>
       <c r="F114">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H114">
-        <v>5.5</v>
-      </c>
-      <c r="I114">
         <v>2.1</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>5.7</v>
       </c>
       <c r="F115">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="G115">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H115">
-        <v>5</v>
-      </c>
-      <c r="I115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>5.8</v>
       </c>
       <c r="F116">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="G116">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H116">
-        <v>5.1</v>
-      </c>
-      <c r="I116">
         <v>2.4</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>6.4</v>
       </c>
       <c r="F117">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="G117">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H117">
-        <v>5.3</v>
-      </c>
-      <c r="I117">
         <v>2.3</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>6.5</v>
       </c>
       <c r="F118">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H118">
-        <v>5.5</v>
-      </c>
-      <c r="I118">
         <v>1.8</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>7.7</v>
       </c>
       <c r="F119">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="G119">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="H119">
-        <v>6.7</v>
-      </c>
-      <c r="I119">
         <v>2.2</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>7.7</v>
       </c>
       <c r="F120">
-        <v>7.7</v>
+        <v>2.6</v>
       </c>
       <c r="G120">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="H120">
-        <v>6.9</v>
-      </c>
-      <c r="I120">
         <v>2.3</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3895,894 +3532,801 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
       </c>
       <c r="F121">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="G121">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H121">
-        <v>5</v>
-      </c>
-      <c r="I121">
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>6.9</v>
       </c>
       <c r="F122">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="G122">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="H122">
-        <v>5.7</v>
-      </c>
-      <c r="I122">
         <v>2.3</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>5.6</v>
       </c>
       <c r="F123">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="G123">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H123">
-        <v>4.9</v>
-      </c>
-      <c r="I123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>7.7</v>
       </c>
       <c r="F124">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="G124">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
       <c r="H124">
-        <v>6.7</v>
-      </c>
-      <c r="I124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>6.3</v>
       </c>
       <c r="F125">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="G125">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H125">
-        <v>4.9</v>
-      </c>
-      <c r="I125">
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E126">
+        <v>6.7</v>
       </c>
       <c r="F126">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="G126">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H126">
-        <v>5.7</v>
-      </c>
-      <c r="I126">
         <v>2.1</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E127">
+        <v>7.2</v>
       </c>
       <c r="F127">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="G127">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="H127">
-        <v>6</v>
-      </c>
-      <c r="I127">
         <v>1.8</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>6.2</v>
       </c>
       <c r="F128">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="G128">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H128">
-        <v>4.8</v>
-      </c>
-      <c r="I128">
         <v>1.8</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>6.1</v>
       </c>
       <c r="F129">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H129">
-        <v>4.9</v>
-      </c>
-      <c r="I129">
         <v>1.8</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>6.4</v>
       </c>
       <c r="F130">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="G130">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H130">
-        <v>5.6</v>
-      </c>
-      <c r="I130">
         <v>2.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>7.2</v>
       </c>
       <c r="F131">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H131">
-        <v>5.8</v>
-      </c>
-      <c r="I131">
         <v>1.6</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>7.4</v>
       </c>
       <c r="F132">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="G132">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H132">
-        <v>6.1</v>
-      </c>
-      <c r="I132">
         <v>1.9</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>7.9</v>
       </c>
       <c r="F133">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="G133">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H133">
-        <v>6.4</v>
-      </c>
-      <c r="I133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>6.4</v>
       </c>
       <c r="F134">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="G134">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H134">
-        <v>5.6</v>
-      </c>
-      <c r="I134">
         <v>2.2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>6.3</v>
       </c>
       <c r="F135">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="G135">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H135">
-        <v>5.1</v>
-      </c>
-      <c r="I135">
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>6.1</v>
       </c>
       <c r="F136">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="G136">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H136">
-        <v>5.6</v>
-      </c>
-      <c r="I136">
         <v>1.4</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E137">
+        <v>7.7</v>
       </c>
       <c r="F137">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H137">
-        <v>6.1</v>
-      </c>
-      <c r="I137">
         <v>2.3</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>6.3</v>
       </c>
       <c r="F138">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="G138">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H138">
-        <v>5.6</v>
-      </c>
-      <c r="I138">
         <v>2.4</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>6.4</v>
       </c>
       <c r="F139">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="G139">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="H139">
-        <v>5.5</v>
-      </c>
-      <c r="I139">
         <v>1.8</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
       </c>
       <c r="F140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H140">
-        <v>4.8</v>
-      </c>
-      <c r="I140">
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E141">
+        <v>6.9</v>
       </c>
       <c r="F141">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="G141">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="H141">
-        <v>5.4</v>
-      </c>
-      <c r="I141">
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E142">
+        <v>6.7</v>
       </c>
       <c r="F142">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="G142">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="H142">
-        <v>5.6</v>
-      </c>
-      <c r="I142">
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E143">
+        <v>6.9</v>
       </c>
       <c r="F143">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="G143">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H143">
-        <v>5.1</v>
-      </c>
-      <c r="I143">
         <v>2.3</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E144">
+        <v>5.8</v>
       </c>
       <c r="F144">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="G144">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H144">
-        <v>5.1</v>
-      </c>
-      <c r="I144">
         <v>1.9</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E145">
+        <v>6.8</v>
       </c>
       <c r="F145">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="G145">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H145">
-        <v>5.9</v>
-      </c>
-      <c r="I145">
         <v>2.3</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E146">
+        <v>6.7</v>
       </c>
       <c r="F146">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="G146">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H146">
-        <v>5.7</v>
-      </c>
-      <c r="I146">
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>6.7</v>
       </c>
       <c r="F147">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H147">
-        <v>5.2</v>
-      </c>
-      <c r="I147">
         <v>2.3</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>6.3</v>
       </c>
       <c r="F148">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="G148">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H148">
-        <v>5</v>
-      </c>
-      <c r="I148">
         <v>1.9</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>6.5</v>
       </c>
       <c r="F149">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H149">
-        <v>5.2</v>
-      </c>
-      <c r="I149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <v>6.2</v>
       </c>
       <c r="F150">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="G150">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="H150">
-        <v>5.4</v>
-      </c>
-      <c r="I150">
         <v>2.3</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E151">
+        <v>5.9</v>
       </c>
       <c r="F151">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="G151">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H151">
-        <v>5.1</v>
-      </c>
-      <c r="I151">
         <v>1.8</v>
       </c>
     </row>

--- a/test files/SaveThis.xlsx
+++ b/test files/SaveThis.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="9">
   <si>
     <t>Predicted Flower Name - nn</t>
   </si>
   <si>
-    <t>Predicted Flower Name - knn</t>
-  </si>
-  <si>
-    <t>Predicted Flower Name - discr</t>
+    <t>Predicted Flower Name - svm</t>
   </si>
   <si>
     <t>Sepal Length</t>
@@ -401,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,3907 +423,3454 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5.1</v>
       </c>
       <c r="E2">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
-      </c>
-      <c r="H2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>4.9</v>
       </c>
       <c r="E3">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
-      </c>
-      <c r="H3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4.7</v>
       </c>
       <c r="E4">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="F4">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="G4">
-        <v>1.3</v>
-      </c>
-      <c r="H4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4.6</v>
       </c>
       <c r="E5">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="F5">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>1.5</v>
-      </c>
-      <c r="H5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="F6">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="G6">
-        <v>1.4</v>
-      </c>
-      <c r="H6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5.4</v>
       </c>
       <c r="E7">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="F7">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="G7">
-        <v>1.7</v>
-      </c>
-      <c r="H7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>4.6</v>
       </c>
       <c r="E8">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="F8">
+        <v>1.4</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>3.4</v>
       </c>
-      <c r="G8">
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>4.4</v>
+      </c>
+      <c r="E10">
+        <v>2.9</v>
+      </c>
+      <c r="F10">
         <v>1.4</v>
       </c>
-      <c r="H8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>3.4</v>
-      </c>
-      <c r="G9">
-        <v>1.5</v>
-      </c>
-      <c r="H9">
+      <c r="G10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>4.4</v>
-      </c>
-      <c r="F10">
-        <v>2.9</v>
-      </c>
-      <c r="G10">
-        <v>1.4</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>4.9</v>
       </c>
       <c r="E11">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>1.5</v>
-      </c>
-      <c r="H11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5.4</v>
       </c>
       <c r="E12">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="F12">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>1.5</v>
-      </c>
-      <c r="H12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>4.8</v>
       </c>
       <c r="E13">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="F13">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="G13">
-        <v>1.6</v>
-      </c>
-      <c r="H13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>4.8</v>
       </c>
       <c r="E14">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="G14">
-        <v>1.4</v>
-      </c>
-      <c r="H14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>4.3</v>
       </c>
       <c r="E15">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="G15">
-        <v>1.1</v>
-      </c>
-      <c r="H15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5.8</v>
       </c>
       <c r="E16">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="G16">
-        <v>1.2</v>
-      </c>
-      <c r="H16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>5.7</v>
       </c>
       <c r="E17">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="F17">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="G17">
-        <v>1.5</v>
-      </c>
-      <c r="H17">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>5.4</v>
       </c>
       <c r="E18">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="F18">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="G18">
-        <v>1.3</v>
-      </c>
-      <c r="H18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>5.1</v>
       </c>
       <c r="E19">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="F19">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
-      </c>
-      <c r="H19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>5.7</v>
       </c>
       <c r="E20">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="F20">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="G20">
-        <v>1.7</v>
-      </c>
-      <c r="H20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>5.1</v>
       </c>
       <c r="E21">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="F21">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="G21">
-        <v>1.5</v>
-      </c>
-      <c r="H21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>5.4</v>
       </c>
       <c r="E22">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="F22">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="G22">
-        <v>1.7</v>
-      </c>
-      <c r="H22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>5.1</v>
       </c>
       <c r="E23">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="F23">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="G23">
-        <v>1.5</v>
-      </c>
-      <c r="H23">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>4.6</v>
       </c>
       <c r="E24">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="F24">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>5.1</v>
       </c>
       <c r="E25">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="F25">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="G25">
-        <v>1.7</v>
-      </c>
-      <c r="H25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>4.8</v>
       </c>
       <c r="E26">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="F26">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="G26">
-        <v>1.9</v>
-      </c>
-      <c r="H26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="G27">
-        <v>1.6</v>
-      </c>
-      <c r="H27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="F28">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="G28">
-        <v>1.6</v>
-      </c>
-      <c r="H28">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>5.2</v>
       </c>
       <c r="E29">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="F29">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="G29">
-        <v>1.5</v>
-      </c>
-      <c r="H29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>5.2</v>
       </c>
       <c r="E30">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="F30">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="G30">
-        <v>1.4</v>
-      </c>
-      <c r="H30">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>4.7</v>
       </c>
       <c r="E31">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="F31">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="G31">
-        <v>1.6</v>
-      </c>
-      <c r="H31">
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>4.8</v>
       </c>
       <c r="E32">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="F32">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="G32">
-        <v>1.6</v>
-      </c>
-      <c r="H32">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>5.4</v>
       </c>
       <c r="E33">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="F33">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="G33">
-        <v>1.5</v>
-      </c>
-      <c r="H33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>5.2</v>
       </c>
       <c r="E34">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="F34">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="G34">
-        <v>1.5</v>
-      </c>
-      <c r="H34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>5.5</v>
       </c>
       <c r="E35">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="F35">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="G35">
-        <v>1.4</v>
-      </c>
-      <c r="H35">
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>4.9</v>
       </c>
       <c r="E36">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="F36">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="G36">
-        <v>1.5</v>
-      </c>
-      <c r="H36">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="F37">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="G37">
-        <v>1.2</v>
-      </c>
-      <c r="H37">
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>5.5</v>
       </c>
       <c r="E38">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F38">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="G38">
-        <v>1.3</v>
-      </c>
-      <c r="H38">
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>4.9</v>
       </c>
       <c r="E39">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="F39">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="G39">
-        <v>1.5</v>
-      </c>
-      <c r="H39">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>4.4</v>
       </c>
       <c r="E40">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="G40">
-        <v>1.3</v>
-      </c>
-      <c r="H40">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>5.1</v>
       </c>
       <c r="E41">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="F41">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="G41">
-        <v>1.5</v>
-      </c>
-      <c r="H41">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F42">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="G42">
-        <v>1.3</v>
-      </c>
-      <c r="H42">
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>4.5</v>
       </c>
       <c r="E43">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="F43">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="G43">
-        <v>1.3</v>
-      </c>
-      <c r="H43">
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>4.4</v>
       </c>
       <c r="E44">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="F44">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="G44">
-        <v>1.3</v>
-      </c>
-      <c r="H44">
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F45">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="G45">
-        <v>1.6</v>
-      </c>
-      <c r="H45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>5.1</v>
       </c>
       <c r="E46">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="F46">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="G46">
-        <v>1.9</v>
-      </c>
-      <c r="H46">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>4.8</v>
       </c>
       <c r="E47">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="G47">
-        <v>1.4</v>
-      </c>
-      <c r="H47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>5.1</v>
       </c>
       <c r="E48">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="F48">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="G48">
-        <v>1.6</v>
-      </c>
-      <c r="H48">
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>4.6</v>
       </c>
       <c r="E49">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="F49">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="G49">
-        <v>1.4</v>
-      </c>
-      <c r="H49">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>5.3</v>
       </c>
       <c r="E50">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="F50">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="G50">
-        <v>1.5</v>
-      </c>
-      <c r="H50">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="F51">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="G51">
-        <v>1.4</v>
-      </c>
-      <c r="H51">
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="F52">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="G52">
-        <v>4.7</v>
-      </c>
-      <c r="H52">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>6.4</v>
       </c>
       <c r="E53">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="F53">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="G53">
-        <v>4.5</v>
-      </c>
-      <c r="H53">
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>6.9</v>
       </c>
       <c r="E54">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="F54">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="G54">
-        <v>4.9</v>
-      </c>
-      <c r="H54">
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>5.5</v>
       </c>
       <c r="E55">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="F55">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
         <v>1.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>6.5</v>
       </c>
       <c r="E56">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="F56">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="G56">
-        <v>4.6</v>
-      </c>
-      <c r="H56">
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>5.7</v>
       </c>
       <c r="E57">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="F57">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="G57">
-        <v>4.5</v>
-      </c>
-      <c r="H57">
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>6.3</v>
       </c>
       <c r="E58">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="F58">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="G58">
-        <v>4.7</v>
-      </c>
-      <c r="H58">
         <v>1.6</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>4.9</v>
       </c>
       <c r="E59">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="F59">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="G59">
-        <v>3.3</v>
-      </c>
-      <c r="H59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>6.6</v>
       </c>
       <c r="E60">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="F60">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="G60">
-        <v>4.6</v>
-      </c>
-      <c r="H60">
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>5.2</v>
       </c>
       <c r="E61">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="F61">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="G61">
-        <v>3.9</v>
-      </c>
-      <c r="H61">
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G62">
-        <v>3.5</v>
-      </c>
-      <c r="H62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>5.9</v>
       </c>
       <c r="E63">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="G63">
-        <v>4.2</v>
-      </c>
-      <c r="H63">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="F64">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>4</v>
-      </c>
-      <c r="H64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>6.1</v>
       </c>
       <c r="E65">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="F65">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="G65">
-        <v>4.7</v>
-      </c>
-      <c r="H65">
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>5.6</v>
       </c>
       <c r="E66">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="F66">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="G66">
-        <v>3.6</v>
-      </c>
-      <c r="H66">
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>6.7</v>
       </c>
       <c r="E67">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="F67">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="G67">
-        <v>4.4</v>
-      </c>
-      <c r="H67">
         <v>1.4</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>5.6</v>
       </c>
       <c r="E68">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G68">
-        <v>4.5</v>
-      </c>
-      <c r="H68">
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>5.8</v>
       </c>
       <c r="E69">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="F69">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="G69">
-        <v>4.1</v>
-      </c>
-      <c r="H69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>6.2</v>
       </c>
       <c r="E70">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="F70">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G70">
-        <v>4.5</v>
-      </c>
-      <c r="H70">
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>5.6</v>
       </c>
       <c r="E71">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="F71">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="G71">
-        <v>3.9</v>
-      </c>
-      <c r="H71">
         <v>1.1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>5.9</v>
       </c>
       <c r="E72">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="F72">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="G72">
-        <v>4.8</v>
-      </c>
-      <c r="H72">
         <v>1.8</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>6.1</v>
       </c>
       <c r="E73">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="F73">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="G73">
-        <v>4</v>
-      </c>
-      <c r="H73">
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>6.3</v>
       </c>
       <c r="E74">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="F74">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="G74">
-        <v>4.9</v>
-      </c>
-      <c r="H74">
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>6.1</v>
       </c>
       <c r="E75">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="F75">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="G75">
-        <v>4.7</v>
-      </c>
-      <c r="H75">
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>6.4</v>
       </c>
       <c r="E76">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="F76">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="G76">
-        <v>4.3</v>
-      </c>
-      <c r="H76">
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>6.6</v>
       </c>
       <c r="E77">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="G77">
-        <v>4.4</v>
-      </c>
-      <c r="H77">
         <v>1.4</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>6.8</v>
       </c>
       <c r="E78">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="F78">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="G78">
-        <v>4.8</v>
-      </c>
-      <c r="H78">
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>6.7</v>
       </c>
       <c r="E79">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>5</v>
-      </c>
-      <c r="H79">
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="F80">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="G80">
-        <v>4.5</v>
-      </c>
-      <c r="H80">
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>5.7</v>
       </c>
       <c r="E81">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="F81">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="G81">
-        <v>3.5</v>
-      </c>
-      <c r="H81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>5.5</v>
       </c>
       <c r="E82">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="F82">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="G82">
-        <v>3.8</v>
-      </c>
-      <c r="H82">
         <v>1.1</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>5.5</v>
       </c>
       <c r="E83">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="F83">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="G83">
-        <v>3.7</v>
-      </c>
-      <c r="H83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>5.8</v>
       </c>
       <c r="E84">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="F84">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="G84">
-        <v>3.9</v>
-      </c>
-      <c r="H84">
         <v>1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="F85">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="G85">
-        <v>5.1</v>
-      </c>
-      <c r="H85">
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>5.4</v>
       </c>
       <c r="E86">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G86">
-        <v>4.5</v>
-      </c>
-      <c r="H86">
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="F87">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="G87">
-        <v>4.5</v>
-      </c>
-      <c r="H87">
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>6.7</v>
       </c>
       <c r="E88">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="F88">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="G88">
-        <v>4.7</v>
-      </c>
-      <c r="H88">
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>6.3</v>
       </c>
       <c r="E89">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="F89">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="G89">
-        <v>4.4</v>
-      </c>
-      <c r="H89">
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>5.6</v>
       </c>
       <c r="E90">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="G90">
-        <v>4.1</v>
-      </c>
-      <c r="H90">
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>5.5</v>
       </c>
       <c r="E91">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F91">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>4</v>
-      </c>
-      <c r="H91">
         <v>1.3</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>5.5</v>
       </c>
       <c r="E92">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="F92">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="G92">
-        <v>4.4</v>
-      </c>
-      <c r="H92">
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>6.1</v>
       </c>
       <c r="E93">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="G93">
-        <v>4.6</v>
-      </c>
-      <c r="H93">
         <v>1.4</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>5.8</v>
       </c>
       <c r="E94">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="F94">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>4</v>
-      </c>
-      <c r="H94">
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="F95">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="G95">
-        <v>3.3</v>
-      </c>
-      <c r="H95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>5.6</v>
       </c>
       <c r="E96">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="F96">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="G96">
-        <v>4.2</v>
-      </c>
-      <c r="H96">
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>5.7</v>
       </c>
       <c r="E97">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="G97">
-        <v>4.2</v>
-      </c>
-      <c r="H97">
         <v>1.2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>5.7</v>
       </c>
       <c r="E98">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="F98">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="G98">
-        <v>4.2</v>
-      </c>
-      <c r="H98">
         <v>1.3</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>6.2</v>
       </c>
       <c r="E99">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="F99">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="G99">
-        <v>4.3</v>
-      </c>
-      <c r="H99">
         <v>1.3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>5.1</v>
       </c>
       <c r="E100">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="F100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-      <c r="H100">
         <v>1.1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>5.7</v>
       </c>
       <c r="E101">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="F101">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="G101">
-        <v>4.1</v>
-      </c>
-      <c r="H101">
         <v>1.3</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>6.3</v>
       </c>
       <c r="E102">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="F102">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="G102">
-        <v>6</v>
-      </c>
-      <c r="H102">
         <v>2.5</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>5.8</v>
       </c>
       <c r="E103">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="F103">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="G103">
-        <v>5.1</v>
-      </c>
-      <c r="H103">
         <v>1.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>7.1</v>
       </c>
       <c r="E104">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="G104">
-        <v>5.9</v>
-      </c>
-      <c r="H104">
         <v>2.1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>6.3</v>
       </c>
       <c r="E105">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="F105">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="G105">
-        <v>5.6</v>
-      </c>
-      <c r="H105">
         <v>1.8</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>6.5</v>
       </c>
       <c r="E106">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="G106">
-        <v>5.8</v>
-      </c>
-      <c r="H106">
         <v>2.2</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>7.6</v>
       </c>
       <c r="E107">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="G107">
-        <v>6.6</v>
-      </c>
-      <c r="H107">
         <v>2.1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
-      <c r="D108" t="s">
-        <v>9</v>
+      <c r="D108">
+        <v>4.9</v>
       </c>
       <c r="E108">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="F108">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G108">
-        <v>4.5</v>
-      </c>
-      <c r="H108">
         <v>1.7</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>7.3</v>
       </c>
       <c r="E109">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="F109">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="G109">
-        <v>6.3</v>
-      </c>
-      <c r="H109">
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>6.7</v>
       </c>
       <c r="E110">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="F110">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="G110">
-        <v>5.8</v>
-      </c>
-      <c r="H110">
         <v>1.8</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>7.2</v>
       </c>
       <c r="E111">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="F111">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="G111">
-        <v>6.1</v>
-      </c>
-      <c r="H111">
         <v>2.5</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>6.5</v>
       </c>
       <c r="E112">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="F112">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="G112">
-        <v>5.1</v>
-      </c>
-      <c r="H112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>6.4</v>
       </c>
       <c r="E113">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="F113">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="G113">
-        <v>5.3</v>
-      </c>
-      <c r="H113">
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>6.8</v>
       </c>
       <c r="E114">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="G114">
-        <v>5.5</v>
-      </c>
-      <c r="H114">
         <v>2.1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>5.7</v>
       </c>
       <c r="E115">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="F115">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G115">
-        <v>5</v>
-      </c>
-      <c r="H115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>5.8</v>
       </c>
       <c r="E116">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="F116">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="G116">
-        <v>5.1</v>
-      </c>
-      <c r="H116">
         <v>2.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>6.4</v>
       </c>
       <c r="E117">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="F117">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="G117">
-        <v>5.3</v>
-      </c>
-      <c r="H117">
         <v>2.3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>6.5</v>
       </c>
       <c r="E118">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="G118">
-        <v>5.5</v>
-      </c>
-      <c r="H118">
         <v>1.8</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>7.7</v>
       </c>
       <c r="E119">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="F119">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="G119">
-        <v>6.7</v>
-      </c>
-      <c r="H119">
         <v>2.2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>7.7</v>
       </c>
       <c r="E120">
-        <v>7.7</v>
+        <v>2.6</v>
       </c>
       <c r="F120">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="G120">
-        <v>6.9</v>
-      </c>
-      <c r="H120">
         <v>2.3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
-      <c r="D121" t="s">
-        <v>9</v>
+      <c r="D121">
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="F121">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="G121">
-        <v>5</v>
-      </c>
-      <c r="H121">
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>6.9</v>
       </c>
       <c r="E122">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="F122">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="G122">
-        <v>5.7</v>
-      </c>
-      <c r="H122">
         <v>2.3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>5.6</v>
       </c>
       <c r="E123">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="F123">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="G123">
-        <v>4.9</v>
-      </c>
-      <c r="H123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>7.7</v>
       </c>
       <c r="E124">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="F124">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
       <c r="G124">
-        <v>6.7</v>
-      </c>
-      <c r="H124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>6.3</v>
       </c>
       <c r="E125">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="F125">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="G125">
-        <v>4.9</v>
-      </c>
-      <c r="H125">
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>6.7</v>
       </c>
       <c r="E126">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="F126">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="G126">
-        <v>5.7</v>
-      </c>
-      <c r="H126">
         <v>2.1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>7.2</v>
       </c>
       <c r="E127">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="F127">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="G127">
-        <v>6</v>
-      </c>
-      <c r="H127">
         <v>1.8</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>6.2</v>
       </c>
       <c r="E128">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="F128">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="G128">
-        <v>4.8</v>
-      </c>
-      <c r="H128">
         <v>1.8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>6.1</v>
       </c>
       <c r="E129">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="G129">
-        <v>4.9</v>
-      </c>
-      <c r="H129">
         <v>1.8</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>6.4</v>
       </c>
       <c r="E130">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="F130">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="G130">
-        <v>5.6</v>
-      </c>
-      <c r="H130">
         <v>2.1</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>7.2</v>
       </c>
       <c r="E131">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="G131">
-        <v>5.8</v>
-      </c>
-      <c r="H131">
         <v>1.6</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>7.4</v>
       </c>
       <c r="E132">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="F132">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="G132">
-        <v>6.1</v>
-      </c>
-      <c r="H132">
         <v>1.9</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>7.9</v>
       </c>
       <c r="E133">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="F133">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="G133">
-        <v>6.4</v>
-      </c>
-      <c r="H133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>6.4</v>
       </c>
       <c r="E134">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="F134">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="G134">
-        <v>5.6</v>
-      </c>
-      <c r="H134">
         <v>2.2</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>6.3</v>
       </c>
       <c r="E135">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="F135">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="G135">
-        <v>5.1</v>
-      </c>
-      <c r="H135">
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>6.1</v>
       </c>
       <c r="E136">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="F136">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="G136">
-        <v>5.6</v>
-      </c>
-      <c r="H136">
         <v>1.4</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>7.7</v>
       </c>
       <c r="E137">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="G137">
-        <v>6.1</v>
-      </c>
-      <c r="H137">
         <v>2.3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>6.3</v>
       </c>
       <c r="E138">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="F138">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="G138">
-        <v>5.6</v>
-      </c>
-      <c r="H138">
         <v>2.4</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>6.4</v>
       </c>
       <c r="E139">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="F139">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="G139">
-        <v>5.5</v>
-      </c>
-      <c r="H139">
         <v>1.8</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="G140">
-        <v>4.8</v>
-      </c>
-      <c r="H140">
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>6.9</v>
       </c>
       <c r="E141">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="F141">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="G141">
-        <v>5.4</v>
-      </c>
-      <c r="H141">
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>6.7</v>
       </c>
       <c r="E142">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="F142">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="G142">
-        <v>5.6</v>
-      </c>
-      <c r="H142">
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>6.9</v>
       </c>
       <c r="E143">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="F143">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="G143">
-        <v>5.1</v>
-      </c>
-      <c r="H143">
         <v>2.3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D144">
+        <v>5.8</v>
       </c>
       <c r="E144">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="F144">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="G144">
-        <v>5.1</v>
-      </c>
-      <c r="H144">
         <v>1.9</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>6.8</v>
       </c>
       <c r="E145">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="F145">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="G145">
-        <v>5.9</v>
-      </c>
-      <c r="H145">
         <v>2.3</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <v>6.7</v>
       </c>
       <c r="E146">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="F146">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="G146">
-        <v>5.7</v>
-      </c>
-      <c r="H146">
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>6.7</v>
       </c>
       <c r="E147">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="G147">
-        <v>5.2</v>
-      </c>
-      <c r="H147">
         <v>2.3</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>6.3</v>
       </c>
       <c r="E148">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="F148">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G148">
-        <v>5</v>
-      </c>
-      <c r="H148">
         <v>1.9</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>6.5</v>
       </c>
       <c r="E149">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="G149">
-        <v>5.2</v>
-      </c>
-      <c r="H149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>6.2</v>
       </c>
       <c r="E150">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="F150">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="G150">
-        <v>5.4</v>
-      </c>
-      <c r="H150">
         <v>2.3</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>5.9</v>
       </c>
       <c r="E151">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="G151">
-        <v>5.1</v>
-      </c>
-      <c r="H151">
         <v>1.8</v>
       </c>
     </row>
